--- a/DOCUMENT/FatigueData - Total.xlsx
+++ b/DOCUMENT/FatigueData - Total.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\GitHub\Fatigue\DOCUMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B3BA57-8504-4B70-8DFD-A54E3894D4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E304EE4-5708-4C81-8158-01FEF2483C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>HOT SPOT NO</t>
   </si>
@@ -114,13 +114,55 @@
   </si>
   <si>
     <t>Calculated life time T (years)</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>W3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -143,6 +185,24 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -201,11 +261,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -523,155 +584,1369 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="15" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="B3" s="2">
+        <v>90</v>
+      </c>
+      <c r="C3" s="2">
+        <v>90</v>
+      </c>
+      <c r="D3" s="2">
+        <v>90</v>
+      </c>
+      <c r="E3" s="2">
+        <v>90</v>
+      </c>
+      <c r="F3" s="2">
+        <v>90</v>
+      </c>
+      <c r="G3" s="2">
+        <v>90</v>
+      </c>
+      <c r="H3" s="2">
+        <v>90</v>
+      </c>
+      <c r="I3" s="2">
+        <v>90</v>
+      </c>
+      <c r="J3" s="2">
+        <v>90</v>
+      </c>
+      <c r="K3" s="2">
+        <v>90</v>
+      </c>
+      <c r="L3" s="2">
+        <v>90</v>
+      </c>
+      <c r="M3" s="2">
+        <v>90</v>
+      </c>
+      <c r="N3" s="2">
+        <v>90</v>
+      </c>
+      <c r="O3" s="2">
+        <v>90</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="B4" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="G6" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="H6" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="I6" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="J6" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="K6" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="L6" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="M6" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="N6" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="O6" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3</v>
+      </c>
+      <c r="J7" s="2">
+        <v>3</v>
+      </c>
+      <c r="K7" s="2">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="2">
+        <v>15.117000000000001</v>
+      </c>
+      <c r="C8" s="2">
+        <v>14.885</v>
+      </c>
+      <c r="D8" s="2">
+        <v>12.592000000000001</v>
+      </c>
+      <c r="E8" s="2">
+        <v>12.449</v>
+      </c>
+      <c r="F8" s="2">
+        <v>12.301</v>
+      </c>
+      <c r="G8" s="2">
+        <v>12.164</v>
+      </c>
+      <c r="H8" s="2">
+        <v>12.01</v>
+      </c>
+      <c r="I8" s="2">
+        <v>11.855</v>
+      </c>
+      <c r="J8" s="2">
+        <v>11.699</v>
+      </c>
+      <c r="K8" s="2">
+        <v>11.545999999999999</v>
+      </c>
+      <c r="L8" s="2">
+        <v>11.398</v>
+      </c>
+      <c r="M8" s="2">
+        <v>11.260999999999999</v>
+      </c>
+      <c r="N8" s="2">
+        <v>11.106999999999999</v>
+      </c>
+      <c r="O8" s="2">
+        <v>10.97</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I9">
-        <f>90/29.5</f>
-        <v>3.0508474576271185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2" t="s">
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2">
+        <v>5</v>
+      </c>
+      <c r="L9" s="2">
+        <v>5</v>
+      </c>
+      <c r="M9" s="2">
+        <v>5</v>
+      </c>
+      <c r="N9" s="2">
+        <v>5</v>
+      </c>
+      <c r="O9" s="2">
+        <v>5</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2" t="s">
+      <c r="B10" s="2">
+        <v>17.146000000000001</v>
+      </c>
+      <c r="C10" s="2">
+        <v>16.856000000000002</v>
+      </c>
+      <c r="D10" s="2">
+        <v>16.32</v>
+      </c>
+      <c r="E10" s="2">
+        <v>16.081</v>
+      </c>
+      <c r="F10" s="2">
+        <v>15.835000000000001</v>
+      </c>
+      <c r="G10" s="2">
+        <v>15.606</v>
+      </c>
+      <c r="H10" s="2">
+        <v>15.35</v>
+      </c>
+      <c r="I10" s="2">
+        <v>15.090999999999999</v>
+      </c>
+      <c r="J10" s="2">
+        <v>14.832000000000001</v>
+      </c>
+      <c r="K10" s="2">
+        <v>14.576000000000001</v>
+      </c>
+      <c r="L10" s="2">
+        <v>14.33</v>
+      </c>
+      <c r="M10" s="2">
+        <v>14.101000000000001</v>
+      </c>
+      <c r="N10" s="2">
+        <v>13.845000000000001</v>
+      </c>
+      <c r="O10" s="2">
+        <v>13.617000000000001</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="B11" s="2">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2">
+        <v>20</v>
+      </c>
+      <c r="H11" s="2">
+        <v>20</v>
+      </c>
+      <c r="I11" s="2">
+        <v>20</v>
+      </c>
+      <c r="J11" s="2">
+        <v>20</v>
+      </c>
+      <c r="K11" s="2">
+        <v>20</v>
+      </c>
+      <c r="L11" s="2">
+        <v>20</v>
+      </c>
+      <c r="M11" s="2">
+        <v>20</v>
+      </c>
+      <c r="N11" s="2">
+        <v>20</v>
+      </c>
+      <c r="O11" s="2">
+        <v>20</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="B12" s="2">
+        <v>0.159</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.159</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.159</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.159</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.159</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.159</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.159</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.159</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.159</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.159</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.159</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.159</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.159</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.159</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="B13" s="2">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2">
+        <v>20</v>
+      </c>
+      <c r="H13" s="2">
+        <v>20</v>
+      </c>
+      <c r="I13" s="2">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2">
+        <v>20</v>
+      </c>
+      <c r="K13" s="2">
+        <v>20</v>
+      </c>
+      <c r="L13" s="2">
+        <v>20</v>
+      </c>
+      <c r="M13" s="2">
+        <v>20</v>
+      </c>
+      <c r="N13" s="2">
+        <v>20</v>
+      </c>
+      <c r="O13" s="2">
+        <v>20</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="2" t="s">
+      <c r="B14" s="2">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2">
+        <v>25</v>
+      </c>
+      <c r="F14" s="2">
+        <v>25</v>
+      </c>
+      <c r="G14" s="2">
+        <v>25</v>
+      </c>
+      <c r="H14" s="2">
+        <v>25</v>
+      </c>
+      <c r="I14" s="2">
+        <v>25</v>
+      </c>
+      <c r="J14" s="2">
+        <v>25</v>
+      </c>
+      <c r="K14" s="2">
+        <v>25</v>
+      </c>
+      <c r="L14" s="2">
+        <v>25</v>
+      </c>
+      <c r="M14" s="2">
+        <v>25</v>
+      </c>
+      <c r="N14" s="2">
+        <v>25</v>
+      </c>
+      <c r="O14" s="2">
+        <v>25</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="3" t="s">
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
+      <c r="B16" s="2">
+        <v>630720000</v>
+      </c>
+      <c r="C16" s="2">
+        <v>630720000</v>
+      </c>
+      <c r="D16" s="2">
+        <v>630720000</v>
+      </c>
+      <c r="E16" s="2">
+        <v>630720000</v>
+      </c>
+      <c r="F16" s="2">
+        <v>630720000</v>
+      </c>
+      <c r="G16" s="2">
+        <v>630720000</v>
+      </c>
+      <c r="H16" s="2">
+        <v>630720000</v>
+      </c>
+      <c r="I16" s="2">
+        <v>630720000</v>
+      </c>
+      <c r="J16" s="2">
+        <v>630720000</v>
+      </c>
+      <c r="K16" s="2">
+        <v>630720000</v>
+      </c>
+      <c r="L16" s="2">
+        <v>630720000</v>
+      </c>
+      <c r="M16" s="2">
+        <v>630720000</v>
+      </c>
+      <c r="N16" s="2">
+        <v>630720000</v>
+      </c>
+      <c r="O16" s="2">
+        <v>630720000</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="3" t="s">
+      <c r="B17" s="2">
+        <v>100284480</v>
+      </c>
+      <c r="C17" s="2">
+        <v>100284480</v>
+      </c>
+      <c r="D17" s="2">
+        <v>100284480</v>
+      </c>
+      <c r="E17" s="2">
+        <v>100284480</v>
+      </c>
+      <c r="F17" s="2">
+        <v>100284480</v>
+      </c>
+      <c r="G17" s="2">
+        <v>100284480</v>
+      </c>
+      <c r="H17" s="2">
+        <v>100284480</v>
+      </c>
+      <c r="I17" s="2">
+        <v>100284480</v>
+      </c>
+      <c r="J17" s="2">
+        <v>100284480</v>
+      </c>
+      <c r="K17" s="2">
+        <v>100284480</v>
+      </c>
+      <c r="L17" s="2">
+        <v>100284480</v>
+      </c>
+      <c r="M17" s="2">
+        <v>100284480</v>
+      </c>
+      <c r="N17" s="2">
+        <v>100284480</v>
+      </c>
+      <c r="O17" s="2">
+        <v>100284480</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="3" t="s">
+      <c r="B18" s="2">
+        <v>19.736000000000001</v>
+      </c>
+      <c r="C18" s="2">
+        <v>19.736000000000001</v>
+      </c>
+      <c r="D18" s="2">
+        <v>19.736000000000001</v>
+      </c>
+      <c r="E18" s="2">
+        <v>19.736000000000001</v>
+      </c>
+      <c r="F18" s="2">
+        <v>19.736000000000001</v>
+      </c>
+      <c r="G18" s="2">
+        <v>19.736000000000001</v>
+      </c>
+      <c r="H18" s="2">
+        <v>19.736000000000001</v>
+      </c>
+      <c r="I18" s="2">
+        <v>19.736000000000001</v>
+      </c>
+      <c r="J18" s="2">
+        <v>19.736000000000001</v>
+      </c>
+      <c r="K18" s="2">
+        <v>19.736000000000001</v>
+      </c>
+      <c r="L18" s="2">
+        <v>19.736000000000001</v>
+      </c>
+      <c r="M18" s="2">
+        <v>19.736000000000001</v>
+      </c>
+      <c r="N18" s="2">
+        <v>19.736000000000001</v>
+      </c>
+      <c r="O18" s="2">
+        <v>19.736000000000001</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="3" t="s">
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1</v>
+      </c>
+      <c r="O19" s="2">
+        <v>1</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="3" t="s">
+      <c r="B20" s="2">
+        <v>14.089</v>
+      </c>
+      <c r="C20" s="2">
+        <v>14.089</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4.306</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4.306</v>
+      </c>
+      <c r="F20" s="2">
+        <v>4.306</v>
+      </c>
+      <c r="G20" s="2">
+        <v>4.306</v>
+      </c>
+      <c r="H20" s="2">
+        <v>4.306</v>
+      </c>
+      <c r="I20" s="2">
+        <v>4.306</v>
+      </c>
+      <c r="J20" s="2">
+        <v>4.306</v>
+      </c>
+      <c r="K20" s="2">
+        <v>4.306</v>
+      </c>
+      <c r="L20" s="2">
+        <v>4.306</v>
+      </c>
+      <c r="M20" s="2">
+        <v>4.306</v>
+      </c>
+      <c r="N20" s="2">
+        <v>4.306</v>
+      </c>
+      <c r="O20" s="2">
+        <v>4.306</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>56.331000000000003</v>
+      </c>
+      <c r="C21" s="2">
+        <v>56.331000000000003</v>
+      </c>
+      <c r="D21" s="2">
+        <v>56.331000000000003</v>
+      </c>
+      <c r="E21" s="2">
+        <v>56.331000000000003</v>
+      </c>
+      <c r="F21" s="2">
+        <v>56.331000000000003</v>
+      </c>
+      <c r="G21" s="2">
+        <v>56.331000000000003</v>
+      </c>
+      <c r="H21" s="2">
+        <v>56.331000000000003</v>
+      </c>
+      <c r="I21" s="2">
+        <v>56.331000000000003</v>
+      </c>
+      <c r="J21" s="2">
+        <v>56.331000000000003</v>
+      </c>
+      <c r="K21" s="2">
+        <v>56.331000000000003</v>
+      </c>
+      <c r="L21" s="2">
+        <v>56.331000000000003</v>
+      </c>
+      <c r="M21" s="2">
+        <v>56.331000000000003</v>
+      </c>
+      <c r="N21" s="2">
+        <v>56.331000000000003</v>
+      </c>
+      <c r="O21" s="2">
+        <v>56.331000000000003</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="3" t="s">
+      <c r="B22" s="2">
+        <v>106.967</v>
+      </c>
+      <c r="C22" s="2">
+        <v>93.593999999999994</v>
+      </c>
+      <c r="D22" s="2">
+        <v>73.114000000000004</v>
+      </c>
+      <c r="E22" s="2">
+        <v>65.513999999999996</v>
+      </c>
+      <c r="F22" s="2">
+        <v>58.478999999999999</v>
+      </c>
+      <c r="G22" s="2">
+        <v>52.642000000000003</v>
+      </c>
+      <c r="H22" s="2">
+        <v>46.774000000000001</v>
+      </c>
+      <c r="I22" s="2">
+        <v>41.527000000000001</v>
+      </c>
+      <c r="J22" s="2">
+        <v>36.841000000000001</v>
+      </c>
+      <c r="K22" s="2">
+        <v>32.759</v>
+      </c>
+      <c r="L22" s="2">
+        <v>29.242000000000001</v>
+      </c>
+      <c r="M22" s="2">
+        <v>26.323</v>
+      </c>
+      <c r="N22" s="2">
+        <v>23.388000000000002</v>
+      </c>
+      <c r="O22" s="2">
+        <v>21.053999999999998</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="3" t="s">
+      <c r="B23" s="2">
+        <v>6.4180000000000001</v>
+      </c>
+      <c r="C23" s="2">
+        <v>5.5410000000000004</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4.2229999999999999</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3.7429999999999999</v>
+      </c>
+      <c r="F23" s="2">
+        <v>3.3029999999999999</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2.9420000000000002</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2.5830000000000002</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2.2669999999999999</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1.746</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1.5409999999999999</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1.373</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="O23" s="2">
+        <v>1.0740000000000001</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="3" t="s">
+      <c r="B24" s="2">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.313</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="L24" s="2">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="M24" s="2">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="N24" s="2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="O24" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="3" t="s">
+      <c r="B25" s="2">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.115</v>
+      </c>
+      <c r="H25" s="2">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="I25" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="J25" s="2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="M25" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N25" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O25" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="3" t="s">
+      <c r="B26" s="2">
+        <v>0.114</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1.272</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1.8540000000000001</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2.7890000000000001</v>
+      </c>
+      <c r="I26" s="2">
+        <v>4.157</v>
+      </c>
+      <c r="J26" s="2">
+        <v>6.1420000000000003</v>
+      </c>
+      <c r="K26" s="2">
+        <v>8.9390000000000001</v>
+      </c>
+      <c r="L26" s="2">
+        <v>12.772</v>
+      </c>
+      <c r="M26" s="2">
+        <v>17.702999999999999</v>
+      </c>
+      <c r="N26" s="2">
+        <v>25.460999999999999</v>
+      </c>
+      <c r="O26" s="2">
+        <v>35.1</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="B27" s="2">
+        <v>175.755</v>
+      </c>
+      <c r="C27" s="2">
+        <v>94.144000000000005</v>
+      </c>
+      <c r="D27" s="2">
+        <v>36.637</v>
+      </c>
+      <c r="E27" s="2">
+        <v>23.95</v>
+      </c>
+      <c r="F27" s="2">
+        <v>15.718</v>
+      </c>
+      <c r="G27" s="2">
+        <v>10.786</v>
+      </c>
+      <c r="H27" s="2">
+        <v>7.17</v>
+      </c>
+      <c r="I27" s="2">
+        <v>4.8120000000000003</v>
+      </c>
+      <c r="J27" s="2">
+        <v>3.2559999999999998</v>
+      </c>
+      <c r="K27" s="2">
+        <v>2.2370000000000001</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1.5660000000000001</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOCUMENT/FatigueData - Total.xlsx
+++ b/DOCUMENT/FatigueData - Total.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\GitHub\Fatigue\DOCUMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E304EE4-5708-4C81-8158-01FEF2483C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F105FC-F894-4167-9991-3EF57B26DC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -261,12 +261,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -285,6 +286,1905 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calculated fatigue damage: D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>B1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>C1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>F1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>F3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>W1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>W2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>W3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$26:$O$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.114</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.272</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.157</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.1420000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.9390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.772</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.702999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.460999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-575A-4E96-9AC7-A43E8177C947}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="21218976"/>
+        <c:axId val="1290097856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="21218976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1290097856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1290097856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="21218976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calculated life time T (years)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>B1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>C1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>F1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>F3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>W1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>W2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>W3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$O$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>175.755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.144000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.637</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.718</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.786</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8120000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2559999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.78600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0DBB-4FBF-A5F9-0560F4E09FDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="21192576"/>
+        <c:axId val="74374672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="21192576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74374672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="74374672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="21192576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7AEBA4A-2A96-4B66-8D9B-92E64498919F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94BE3822-4865-8276-8859-83110ABE2071}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -587,13 +2487,13 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="15" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -1307,46 +3207,46 @@
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="5">
         <v>630720000</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="5">
         <v>630720000</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="5">
         <v>630720000</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="5">
         <v>630720000</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="5">
         <v>630720000</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="5">
         <v>630720000</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="5">
         <v>630720000</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="5">
         <v>630720000</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="5">
         <v>630720000</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="5">
         <v>630720000</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="5">
         <v>630720000</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="5">
         <v>630720000</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="5">
         <v>630720000</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="5">
         <v>630720000</v>
       </c>
       <c r="P16" s="2"/>
@@ -1356,46 +3256,46 @@
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="5">
         <v>100284480</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="5">
         <v>100284480</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="5">
         <v>100284480</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="5">
         <v>100284480</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="5">
         <v>100284480</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="5">
         <v>100284480</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="5">
         <v>100284480</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="5">
         <v>100284480</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="5">
         <v>100284480</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="5">
         <v>100284480</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="5">
         <v>100284480</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="5">
         <v>100284480</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="5">
         <v>100284480</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="5">
         <v>100284480</v>
       </c>
       <c r="P17" s="2"/>
@@ -1950,5 +3850,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/DOCUMENT/FatigueData - Total.xlsx
+++ b/DOCUMENT/FatigueData - Total.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\GitHub\Fatigue\DOCUMENT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vu.le\OneDrive - Bluetech Finland Oy\Tiedostot\GitHub\Fatigue\DOCUMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F105FC-F894-4167-9991-3EF57B26DC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C316F36-D423-49E6-AE6B-28F8C7E01FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="41">
   <si>
     <t>HOT SPOT NO</t>
   </si>
@@ -2486,8 +2488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3852,4 +3854,1410 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B483FD-DD00-4C96-A17A-4FDC9C434394}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>90</v>
+      </c>
+      <c r="C3">
+        <v>90</v>
+      </c>
+      <c r="D3">
+        <v>90</v>
+      </c>
+      <c r="E3">
+        <v>90</v>
+      </c>
+      <c r="F3">
+        <v>90</v>
+      </c>
+      <c r="G3">
+        <v>90</v>
+      </c>
+      <c r="H3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3.1</v>
+      </c>
+      <c r="C4">
+        <v>3.1</v>
+      </c>
+      <c r="D4">
+        <v>3.1</v>
+      </c>
+      <c r="E4">
+        <v>3.1</v>
+      </c>
+      <c r="F4">
+        <v>3.1</v>
+      </c>
+      <c r="G4">
+        <v>3.1</v>
+      </c>
+      <c r="H4">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5">
+        <v>0.7</v>
+      </c>
+      <c r="D5">
+        <v>0.9</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G5">
+        <v>1.2</v>
+      </c>
+      <c r="H5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>10000000</v>
+      </c>
+      <c r="C6">
+        <v>10000000</v>
+      </c>
+      <c r="D6">
+        <v>10000000</v>
+      </c>
+      <c r="E6">
+        <v>10000000</v>
+      </c>
+      <c r="F6">
+        <v>10000000</v>
+      </c>
+      <c r="G6">
+        <v>10000000</v>
+      </c>
+      <c r="H6">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>15.117000000000001</v>
+      </c>
+      <c r="C8">
+        <v>15.117000000000001</v>
+      </c>
+      <c r="D8">
+        <v>15.117000000000001</v>
+      </c>
+      <c r="E8">
+        <v>15.117000000000001</v>
+      </c>
+      <c r="F8">
+        <v>15.117000000000001</v>
+      </c>
+      <c r="G8">
+        <v>15.117000000000001</v>
+      </c>
+      <c r="H8">
+        <v>15.117000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>17.146000000000001</v>
+      </c>
+      <c r="C10">
+        <v>17.146000000000001</v>
+      </c>
+      <c r="D10">
+        <v>17.146000000000001</v>
+      </c>
+      <c r="E10">
+        <v>17.146000000000001</v>
+      </c>
+      <c r="F10">
+        <v>17.146000000000001</v>
+      </c>
+      <c r="G10">
+        <v>17.146000000000001</v>
+      </c>
+      <c r="H10">
+        <v>17.146000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.159</v>
+      </c>
+      <c r="C12">
+        <v>0.159</v>
+      </c>
+      <c r="D12">
+        <v>0.159</v>
+      </c>
+      <c r="E12">
+        <v>0.159</v>
+      </c>
+      <c r="F12">
+        <v>0.159</v>
+      </c>
+      <c r="G12">
+        <v>0.159</v>
+      </c>
+      <c r="H12">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>25</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>25</v>
+      </c>
+      <c r="H14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>630720000</v>
+      </c>
+      <c r="C16">
+        <v>630720000</v>
+      </c>
+      <c r="D16">
+        <v>630720000</v>
+      </c>
+      <c r="E16">
+        <v>630720000</v>
+      </c>
+      <c r="F16">
+        <v>630720000</v>
+      </c>
+      <c r="G16">
+        <v>630720000</v>
+      </c>
+      <c r="H16">
+        <v>630720000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>100284480</v>
+      </c>
+      <c r="C17">
+        <v>100284480</v>
+      </c>
+      <c r="D17">
+        <v>100284480</v>
+      </c>
+      <c r="E17">
+        <v>100284480</v>
+      </c>
+      <c r="F17">
+        <v>100284480</v>
+      </c>
+      <c r="G17">
+        <v>100284480</v>
+      </c>
+      <c r="H17">
+        <v>100284480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="C18">
+        <v>4.3440000000000003</v>
+      </c>
+      <c r="D18">
+        <v>10.956</v>
+      </c>
+      <c r="E18">
+        <v>15.144</v>
+      </c>
+      <c r="F18">
+        <v>19.736000000000001</v>
+      </c>
+      <c r="G18">
+        <v>24.611000000000001</v>
+      </c>
+      <c r="H18">
+        <v>29.664999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>40320</v>
+      </c>
+      <c r="C20">
+        <v>424.33800000000002</v>
+      </c>
+      <c r="D20">
+        <v>47.875999999999998</v>
+      </c>
+      <c r="E20">
+        <v>24</v>
+      </c>
+      <c r="F20">
+        <v>14.089</v>
+      </c>
+      <c r="G20">
+        <v>9.2609999999999992</v>
+      </c>
+      <c r="H20">
+        <v>6.6139999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>3628800</v>
+      </c>
+      <c r="C21">
+        <v>6730.8729999999996</v>
+      </c>
+      <c r="D21">
+        <v>318.11900000000003</v>
+      </c>
+      <c r="E21">
+        <v>120</v>
+      </c>
+      <c r="F21">
+        <v>56.331000000000003</v>
+      </c>
+      <c r="G21">
+        <v>30.942</v>
+      </c>
+      <c r="H21">
+        <v>19.087</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>106.967</v>
+      </c>
+      <c r="C22">
+        <v>106.967</v>
+      </c>
+      <c r="D22">
+        <v>106.967</v>
+      </c>
+      <c r="E22">
+        <v>106.967</v>
+      </c>
+      <c r="F22">
+        <v>106.967</v>
+      </c>
+      <c r="G22">
+        <v>106.967</v>
+      </c>
+      <c r="H22">
+        <v>106.967</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>11.407999999999999</v>
+      </c>
+      <c r="C23">
+        <v>9.4169999999999998</v>
+      </c>
+      <c r="D23">
+        <v>7.774</v>
+      </c>
+      <c r="E23">
+        <v>7.0629999999999997</v>
+      </c>
+      <c r="F23">
+        <v>6.4180000000000001</v>
+      </c>
+      <c r="G23">
+        <v>5.8310000000000004</v>
+      </c>
+      <c r="H23">
+        <v>5.298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="C24">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="D24">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="E24">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="F24">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="G24">
+        <v>0.79</v>
+      </c>
+      <c r="H24">
+        <v>0.76300000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="C25">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="D25">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="E25">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="F25">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="G25">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="H25">
+        <v>0.63700000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1E-3</v>
+      </c>
+      <c r="C26">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D26">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E26">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F26">
+        <v>0.114</v>
+      </c>
+      <c r="G26">
+        <v>0.188</v>
+      </c>
+      <c r="H26">
+        <v>0.29299999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>23465.228999999999</v>
+      </c>
+      <c r="C27">
+        <v>2875.0349999999999</v>
+      </c>
+      <c r="D27">
+        <v>589.27099999999996</v>
+      </c>
+      <c r="E27">
+        <v>309.53800000000001</v>
+      </c>
+      <c r="F27">
+        <v>175.755</v>
+      </c>
+      <c r="G27">
+        <v>106.526</v>
+      </c>
+      <c r="H27">
+        <v>68.222999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB4F971-31B2-46DF-8141-9A8AC5A18565}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>90</v>
+      </c>
+      <c r="C3">
+        <v>90</v>
+      </c>
+      <c r="D3">
+        <v>90</v>
+      </c>
+      <c r="E3">
+        <v>90</v>
+      </c>
+      <c r="F3">
+        <v>90</v>
+      </c>
+      <c r="G3">
+        <v>90</v>
+      </c>
+      <c r="H3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3.1</v>
+      </c>
+      <c r="C4">
+        <v>3.1</v>
+      </c>
+      <c r="D4">
+        <v>3.1</v>
+      </c>
+      <c r="E4">
+        <v>3.1</v>
+      </c>
+      <c r="F4">
+        <v>3.1</v>
+      </c>
+      <c r="G4">
+        <v>3.1</v>
+      </c>
+      <c r="H4">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H5">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>10000000</v>
+      </c>
+      <c r="C6">
+        <v>10000000</v>
+      </c>
+      <c r="D6">
+        <v>10000000</v>
+      </c>
+      <c r="E6">
+        <v>10000000</v>
+      </c>
+      <c r="F6">
+        <v>10000000</v>
+      </c>
+      <c r="G6">
+        <v>10000000</v>
+      </c>
+      <c r="H6">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>15.117000000000001</v>
+      </c>
+      <c r="C8">
+        <v>15.117000000000001</v>
+      </c>
+      <c r="D8">
+        <v>15.117000000000001</v>
+      </c>
+      <c r="E8">
+        <v>15.117000000000001</v>
+      </c>
+      <c r="F8">
+        <v>15.117000000000001</v>
+      </c>
+      <c r="G8">
+        <v>15.117000000000001</v>
+      </c>
+      <c r="H8">
+        <v>15.117000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>17.146000000000001</v>
+      </c>
+      <c r="C10">
+        <v>17.146000000000001</v>
+      </c>
+      <c r="D10">
+        <v>17.146000000000001</v>
+      </c>
+      <c r="E10">
+        <v>17.146000000000001</v>
+      </c>
+      <c r="F10">
+        <v>17.146000000000001</v>
+      </c>
+      <c r="G10">
+        <v>17.146000000000001</v>
+      </c>
+      <c r="H10">
+        <v>17.146000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <v>40</v>
+      </c>
+      <c r="H11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.159</v>
+      </c>
+      <c r="C12">
+        <v>0.159</v>
+      </c>
+      <c r="D12">
+        <v>0.159</v>
+      </c>
+      <c r="E12">
+        <v>0.159</v>
+      </c>
+      <c r="F12">
+        <v>0.159</v>
+      </c>
+      <c r="G12">
+        <v>0.159</v>
+      </c>
+      <c r="H12">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>25</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>25</v>
+      </c>
+      <c r="H14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>315360000</v>
+      </c>
+      <c r="C16">
+        <v>473040000</v>
+      </c>
+      <c r="D16">
+        <v>630720000</v>
+      </c>
+      <c r="E16">
+        <v>788400000</v>
+      </c>
+      <c r="F16">
+        <v>946080000</v>
+      </c>
+      <c r="G16">
+        <v>1261440000</v>
+      </c>
+      <c r="H16">
+        <v>1576800000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>50142240</v>
+      </c>
+      <c r="C17">
+        <v>75213360</v>
+      </c>
+      <c r="D17">
+        <v>100284480</v>
+      </c>
+      <c r="E17">
+        <v>125355600</v>
+      </c>
+      <c r="F17">
+        <v>150426720</v>
+      </c>
+      <c r="G17">
+        <v>200568960</v>
+      </c>
+      <c r="H17">
+        <v>250711200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>20.436</v>
+      </c>
+      <c r="C18">
+        <v>20.021000000000001</v>
+      </c>
+      <c r="D18">
+        <v>19.736000000000001</v>
+      </c>
+      <c r="E18">
+        <v>19.521000000000001</v>
+      </c>
+      <c r="F18">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="G18">
+        <v>19.085000000000001</v>
+      </c>
+      <c r="H18">
+        <v>18.884</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>14.089</v>
+      </c>
+      <c r="C20">
+        <v>14.089</v>
+      </c>
+      <c r="D20">
+        <v>14.089</v>
+      </c>
+      <c r="E20">
+        <v>14.089</v>
+      </c>
+      <c r="F20">
+        <v>14.089</v>
+      </c>
+      <c r="G20">
+        <v>14.089</v>
+      </c>
+      <c r="H20">
+        <v>14.089</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>56.331000000000003</v>
+      </c>
+      <c r="C21">
+        <v>56.331000000000003</v>
+      </c>
+      <c r="D21">
+        <v>56.331000000000003</v>
+      </c>
+      <c r="E21">
+        <v>56.331000000000003</v>
+      </c>
+      <c r="F21">
+        <v>56.331000000000003</v>
+      </c>
+      <c r="G21">
+        <v>56.331000000000003</v>
+      </c>
+      <c r="H21">
+        <v>56.331000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>106.967</v>
+      </c>
+      <c r="C22">
+        <v>106.967</v>
+      </c>
+      <c r="D22">
+        <v>106.967</v>
+      </c>
+      <c r="E22">
+        <v>106.967</v>
+      </c>
+      <c r="F22">
+        <v>106.967</v>
+      </c>
+      <c r="G22">
+        <v>106.967</v>
+      </c>
+      <c r="H22">
+        <v>106.967</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>6.1760000000000002</v>
+      </c>
+      <c r="C23">
+        <v>6.3179999999999996</v>
+      </c>
+      <c r="D23">
+        <v>6.4180000000000001</v>
+      </c>
+      <c r="E23">
+        <v>6.4950000000000001</v>
+      </c>
+      <c r="F23">
+        <v>6.5590000000000002</v>
+      </c>
+      <c r="G23">
+        <v>6.6589999999999998</v>
+      </c>
+      <c r="H23">
+        <v>6.7370000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="C24">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="D24">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="E24">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="F24">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="G24">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="H24">
+        <v>0.84299999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="C25">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="D25">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="E25">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="F25">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="G25">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="H25">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="C26">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="D26">
+        <v>0.114</v>
+      </c>
+      <c r="E26">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="F26">
+        <v>0.155</v>
+      </c>
+      <c r="G26">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="H26">
+        <v>0.23100000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>298.20999999999998</v>
+      </c>
+      <c r="C27">
+        <v>219.02099999999999</v>
+      </c>
+      <c r="D27">
+        <v>175.755</v>
+      </c>
+      <c r="E27">
+        <v>148.084</v>
+      </c>
+      <c r="F27">
+        <v>128.69200000000001</v>
+      </c>
+      <c r="G27">
+        <v>103.054</v>
+      </c>
+      <c r="H27">
+        <v>86.691000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DOCUMENT/FatigueData - Total.xlsx
+++ b/DOCUMENT/FatigueData - Total.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vu.le\OneDrive - Bluetech Finland Oy\Tiedostot\GitHub\Fatigue\DOCUMENT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\GitHub\Fatigue\DOCUMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C316F36-D423-49E6-AE6B-28F8C7E01FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819D40A7-A21E-42B1-85D4-2180BC28935A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="41">
   <si>
     <t>HOT SPOT NO</t>
   </si>
@@ -475,6 +477,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -493,6 +496,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>S-N</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Curve</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -558,6 +621,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>D</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -848,6 +974,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>S-N</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Curve</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -913,6 +1099,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>T</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -958,6 +1199,2234 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Calculated fatigue damage: D</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calculated fatigue damage: D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$26:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.114</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.188</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.29299999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5358-460E-A8D9-30F52391F707}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="621714447"/>
+        <c:axId val="1368147007"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="621714447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>h</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1368147007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1368147007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>D</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="621714447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calculated life time T (years)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$27:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>23465.228999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2875.0349999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>589.27099999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>309.53800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>175.755</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>106.526</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.222999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4833-4301-A679-684682689233}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1358338207"/>
+        <c:axId val="695367839"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1358338207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>h</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="695367839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="695367839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>T</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1358338207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calculated fatigue damage: D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$26:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE93-4A79-BB7D-71A0E8D08ECC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1358347807"/>
+        <c:axId val="1368159407"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1358347807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1368159407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1368159407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1358347807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calculated life time T (years)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$27:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>298.20999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>219.02099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175.755</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>148.084</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.69200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103.054</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86.691000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C937-4A09-9579-36151717B2F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1358343967"/>
+        <c:axId val="1368160399"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1358343967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1368160399"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1368160399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1358343967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calculated fatigue damage: D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$26:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.153</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17599999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AFAF-43F9-80B0-595AC804F2E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1358354527"/>
+        <c:axId val="1368152959"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1358354527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1368152959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1368152959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1358354527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calculated life time T (years)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$27:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>285.63799999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>241.387</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>205.339</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175.755</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>151.30500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130.965</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>113.938</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15C5-4849-B5F7-3DEBFC51606B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="633229519"/>
+        <c:axId val="695356927"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="633229519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="695356927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="695356927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633229519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1080,6 +3549,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2093,6 +4802,3102 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2169,6 +7974,237 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94BE3822-4865-8276-8859-83110ABE2071}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7D417BF-7206-D2A0-31CF-60418D563AA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>376237</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56322171-3BAB-A04D-C9C7-8DC6D50CE479}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB4EADB-F7BD-CB67-628F-2893E7F605B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78872504-EF14-031F-05E3-DC1E39C0339F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C732124-3935-80CE-B45B-1ACD0B900EC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{800BE954-8D09-09F6-4B58-C080F4487FEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2489,7 +8525,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3860,8 +9896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B483FD-DD00-4C96-A17A-4FDC9C434394}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4558,6 +10594,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4565,8 +10602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB4F971-31B2-46DF-8141-9A8AC5A18565}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5259,5 +11296,803 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D8F165-68D6-4378-896C-5E4A9EF5C3B1}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>90</v>
+      </c>
+      <c r="C3">
+        <v>90</v>
+      </c>
+      <c r="D3">
+        <v>90</v>
+      </c>
+      <c r="E3">
+        <v>90</v>
+      </c>
+      <c r="F3">
+        <v>90</v>
+      </c>
+      <c r="G3">
+        <v>90</v>
+      </c>
+      <c r="H3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2.8</v>
+      </c>
+      <c r="C4">
+        <v>2.9</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3.1</v>
+      </c>
+      <c r="F4">
+        <v>3.2</v>
+      </c>
+      <c r="G4">
+        <v>3.3</v>
+      </c>
+      <c r="H4">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H5">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>10000000</v>
+      </c>
+      <c r="C6">
+        <v>10000000</v>
+      </c>
+      <c r="D6">
+        <v>10000000</v>
+      </c>
+      <c r="E6">
+        <v>10000000</v>
+      </c>
+      <c r="F6">
+        <v>10000000</v>
+      </c>
+      <c r="G6">
+        <v>10000000</v>
+      </c>
+      <c r="H6">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>15.117000000000001</v>
+      </c>
+      <c r="C8">
+        <v>15.117000000000001</v>
+      </c>
+      <c r="D8">
+        <v>15.117000000000001</v>
+      </c>
+      <c r="E8">
+        <v>15.117000000000001</v>
+      </c>
+      <c r="F8">
+        <v>15.117000000000001</v>
+      </c>
+      <c r="G8">
+        <v>15.117000000000001</v>
+      </c>
+      <c r="H8">
+        <v>15.117000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>17.146000000000001</v>
+      </c>
+      <c r="C10">
+        <v>17.146000000000001</v>
+      </c>
+      <c r="D10">
+        <v>17.146000000000001</v>
+      </c>
+      <c r="E10">
+        <v>17.146000000000001</v>
+      </c>
+      <c r="F10">
+        <v>17.146000000000001</v>
+      </c>
+      <c r="G10">
+        <v>17.146000000000001</v>
+      </c>
+      <c r="H10">
+        <v>17.146000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.159</v>
+      </c>
+      <c r="C12">
+        <v>0.159</v>
+      </c>
+      <c r="D12">
+        <v>0.159</v>
+      </c>
+      <c r="E12">
+        <v>0.159</v>
+      </c>
+      <c r="F12">
+        <v>0.159</v>
+      </c>
+      <c r="G12">
+        <v>0.159</v>
+      </c>
+      <c r="H12">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>25</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>25</v>
+      </c>
+      <c r="H14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>630720000</v>
+      </c>
+      <c r="C16">
+        <v>630720000</v>
+      </c>
+      <c r="D16">
+        <v>630720000</v>
+      </c>
+      <c r="E16">
+        <v>630720000</v>
+      </c>
+      <c r="F16">
+        <v>630720000</v>
+      </c>
+      <c r="G16">
+        <v>630720000</v>
+      </c>
+      <c r="H16">
+        <v>630720000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>100284480</v>
+      </c>
+      <c r="C17">
+        <v>100284480</v>
+      </c>
+      <c r="D17">
+        <v>100284480</v>
+      </c>
+      <c r="E17">
+        <v>100284480</v>
+      </c>
+      <c r="F17">
+        <v>100284480</v>
+      </c>
+      <c r="G17">
+        <v>100284480</v>
+      </c>
+      <c r="H17">
+        <v>100284480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>17.826000000000001</v>
+      </c>
+      <c r="C18">
+        <v>18.463000000000001</v>
+      </c>
+      <c r="D18">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E18">
+        <v>19.736000000000001</v>
+      </c>
+      <c r="F18">
+        <v>20.373000000000001</v>
+      </c>
+      <c r="G18">
+        <v>21.01</v>
+      </c>
+      <c r="H18">
+        <v>21.646000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>14.089</v>
+      </c>
+      <c r="C20">
+        <v>14.089</v>
+      </c>
+      <c r="D20">
+        <v>14.089</v>
+      </c>
+      <c r="E20">
+        <v>14.089</v>
+      </c>
+      <c r="F20">
+        <v>14.089</v>
+      </c>
+      <c r="G20">
+        <v>14.089</v>
+      </c>
+      <c r="H20">
+        <v>14.089</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>56.331000000000003</v>
+      </c>
+      <c r="C21">
+        <v>56.331000000000003</v>
+      </c>
+      <c r="D21">
+        <v>56.331000000000003</v>
+      </c>
+      <c r="E21">
+        <v>56.331000000000003</v>
+      </c>
+      <c r="F21">
+        <v>56.331000000000003</v>
+      </c>
+      <c r="G21">
+        <v>56.331000000000003</v>
+      </c>
+      <c r="H21">
+        <v>56.331000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>106.967</v>
+      </c>
+      <c r="C22">
+        <v>106.967</v>
+      </c>
+      <c r="D22">
+        <v>106.967</v>
+      </c>
+      <c r="E22">
+        <v>106.967</v>
+      </c>
+      <c r="F22">
+        <v>106.967</v>
+      </c>
+      <c r="G22">
+        <v>106.967</v>
+      </c>
+      <c r="H22">
+        <v>106.967</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7.1779999999999999</v>
+      </c>
+      <c r="C23">
+        <v>6.9059999999999997</v>
+      </c>
+      <c r="D23">
+        <v>6.6529999999999996</v>
+      </c>
+      <c r="E23">
+        <v>6.4180000000000001</v>
+      </c>
+      <c r="F23">
+        <v>6.1970000000000001</v>
+      </c>
+      <c r="G23">
+        <v>5.9909999999999997</v>
+      </c>
+      <c r="H23">
+        <v>5.798</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.878</v>
+      </c>
+      <c r="C24">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="D24">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="E24">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="F24">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="G24">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="H24">
+        <v>0.74299999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="C25">
+        <v>0.75</v>
+      </c>
+      <c r="D25">
+        <v>0.72</v>
+      </c>
+      <c r="E25">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="F25">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="G25">
+        <v>0.628</v>
+      </c>
+      <c r="H25">
+        <v>0.59799999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C26">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D26">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="E26">
+        <v>0.114</v>
+      </c>
+      <c r="F26">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="G26">
+        <v>0.153</v>
+      </c>
+      <c r="H26">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>285.63799999999998</v>
+      </c>
+      <c r="C27">
+        <v>241.387</v>
+      </c>
+      <c r="D27">
+        <v>205.339</v>
+      </c>
+      <c r="E27">
+        <v>175.755</v>
+      </c>
+      <c r="F27">
+        <v>151.30500000000001</v>
+      </c>
+      <c r="G27">
+        <v>130.965</v>
+      </c>
+      <c r="H27">
+        <v>113.938</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436FC11D-F266-48CD-960D-DE85FCF28935}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>2.8</v>
+      </c>
+      <c r="C1">
+        <v>2.9</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>3.1</v>
+      </c>
+      <c r="F1">
+        <v>3.2</v>
+      </c>
+      <c r="G1">
+        <v>3.3</v>
+      </c>
+      <c r="H1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C2">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D2">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.114</v>
+      </c>
+      <c r="F2">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.153</v>
+      </c>
+      <c r="H2">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>285.63799999999998</v>
+      </c>
+      <c r="C3">
+        <v>241.387</v>
+      </c>
+      <c r="D3">
+        <v>205.339</v>
+      </c>
+      <c r="E3">
+        <v>175.755</v>
+      </c>
+      <c r="F3">
+        <v>151.30500000000001</v>
+      </c>
+      <c r="G3">
+        <v>130.965</v>
+      </c>
+      <c r="H3">
+        <v>113.938</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DOCUMENT/FatigueData - Total.xlsx
+++ b/DOCUMENT/FatigueData - Total.xlsx
@@ -1,43 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\GitHub\Fatigue\DOCUMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819D40A7-A21E-42B1-85D4-2180BC28935A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10469FDA-6E10-453F-AB64-E9167ABD6ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="48">
   <si>
     <t>HOT SPOT NO</t>
   </si>
@@ -161,12 +149,34 @@
   <si>
     <t>W3</t>
   </si>
+  <si>
+    <t>Number of cycles</t>
+  </si>
+  <si>
+    <t>Stress range (MPa)</t>
+  </si>
+  <si>
+    <t>Mean stress range in block (MPa)</t>
+  </si>
+  <si>
+    <t>Calculated fatigue damage at ambient temperature</t>
+  </si>
+  <si>
+    <t>Calculated fatigue damage at 310°C</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional fatigue damage due to 1,000 cycles at stress range 140 Mpa
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -211,6 +221,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -235,7 +250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -258,6 +273,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -265,13 +295,25 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -477,7 +519,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -12002,10 +12043,400 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41B9A59-E515-46E0-B6B3-A9C65292BA9B}">
+  <dimension ref="B2:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="15.75" thickBot="1"/>
+    <row r="3" spans="2:7" ht="99.75" thickBot="1">
+      <c r="B3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <v>137.94999999999999</v>
+      </c>
+      <c r="D4" s="9">
+        <v>131.91999999999999</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2.6100000000000001E-5</v>
+      </c>
+      <c r="F4" s="8">
+        <v>4.5399999999999999E-5</v>
+      </c>
+      <c r="G4" s="8">
+        <v>3.9700000000000001E-9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B5" s="6">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9">
+        <v>125.9</v>
+      </c>
+      <c r="D5" s="9">
+        <v>123.3</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2.6699999999999998E-5</v>
+      </c>
+      <c r="F5" s="8">
+        <v>4.6300000000000001E-5</v>
+      </c>
+      <c r="G5" s="8">
+        <v>4.5100000000000003E-9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B6" s="6">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9">
+        <v>120.71</v>
+      </c>
+      <c r="D6" s="9">
+        <v>114.68</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1.7100000000000001E-4</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2.9799999999999998E-4</v>
+      </c>
+      <c r="G6" s="8">
+        <v>3.2600000000000001E-8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B7" s="6">
+        <v>50</v>
+      </c>
+      <c r="C7" s="9">
+        <v>108.65</v>
+      </c>
+      <c r="D7" s="9">
+        <v>106.06</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1.6699999999999999E-4</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2.9500000000000001E-4</v>
+      </c>
+      <c r="G7" s="8">
+        <v>3.6799999999999999E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B8" s="6">
+        <v>100</v>
+      </c>
+      <c r="C8" s="9">
+        <v>103.46</v>
+      </c>
+      <c r="D8" s="9">
+        <v>97.44</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1.83E-3</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2.6399999999999998E-7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B9" s="6">
+        <v>500</v>
+      </c>
+      <c r="C9" s="9">
+        <v>91.41</v>
+      </c>
+      <c r="D9" s="9">
+        <v>88.82</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1.732E-3</v>
+      </c>
+      <c r="G9" s="8">
+        <v>2.96E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B10" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="9">
+        <v>86.22</v>
+      </c>
+      <c r="D10" s="9">
+        <v>80.19</v>
+      </c>
+      <c r="E10" s="6">
+        <v>5.8700000000000002E-3</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1.0201E-2</v>
+      </c>
+      <c r="G10" s="8">
+        <v>2.1100000000000001E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B11" s="6">
+        <v>5000</v>
+      </c>
+      <c r="C11" s="9">
+        <v>74.17</v>
+      </c>
+      <c r="D11" s="9">
+        <v>71.569999999999993</v>
+      </c>
+      <c r="E11" s="6">
+        <v>5.2100000000000002E-3</v>
+      </c>
+      <c r="F11" s="6">
+        <v>9.0650000000000001E-3</v>
+      </c>
+      <c r="G11" s="8">
+        <v>2.34E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B12" s="6">
+        <v>10000</v>
+      </c>
+      <c r="C12" s="9">
+        <v>68.98</v>
+      </c>
+      <c r="D12" s="9">
+        <v>62.95</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2.8379999999999999E-2</v>
+      </c>
+      <c r="F12" s="6">
+        <v>4.9346000000000001E-2</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1.6500000000000001E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B13" s="6">
+        <v>50000</v>
+      </c>
+      <c r="C13" s="9">
+        <v>56.93</v>
+      </c>
+      <c r="D13" s="9">
+        <v>54.33</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="F13" s="6">
+        <v>3.9653000000000001E-2</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1.8099999999999999E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B14" s="6">
+        <v>100000</v>
+      </c>
+      <c r="C14" s="9">
+        <v>51.74</v>
+      </c>
+      <c r="D14" s="9">
+        <v>45.71</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.10866000000000001</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.18890899999999999</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1.2999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B15" s="6">
+        <v>500000</v>
+      </c>
+      <c r="C15" s="9">
+        <v>39.68</v>
+      </c>
+      <c r="D15" s="9">
+        <v>37.090000000000003</v>
+      </c>
+      <c r="E15" s="6">
+        <v>7.2559999999999999E-2</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.12614</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1.3999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B16" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="C16" s="9">
+        <v>34.49</v>
+      </c>
+      <c r="D16" s="9">
+        <v>28.47</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.19822000000000001</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.45631699999999997</v>
+      </c>
+      <c r="G16" s="6">
+        <v>9.3999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B17" s="6">
+        <v>5000000</v>
+      </c>
+      <c r="C17" s="9">
+        <v>22.44</v>
+      </c>
+      <c r="D17" s="9">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.10255599999999999</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B18" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="C18" s="9">
+        <v>17.25</v>
+      </c>
+      <c r="D18" s="9">
+        <v>11.23</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1.8890000000000001E-2</v>
+      </c>
+      <c r="F18" s="6">
+        <v>4.7489000000000003E-2</v>
+      </c>
+      <c r="G18" s="6">
+        <v>6.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B19" s="6">
+        <v>50000000</v>
+      </c>
+      <c r="C19" s="9">
+        <v>5.2</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1.5800000000000001E-5</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.9799999999999998E-5</v>
+      </c>
+      <c r="G19" s="6">
+        <v>7.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B20" s="6">
+        <v>100000000</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6">
+        <v>0.50390000000000001</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1.034</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1.6299999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436FC11D-F266-48CD-960D-DE85FCF28935}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
